--- a/data/trans_camb/P20B-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P20B-Estudios-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>3.533271751191741</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7.361354669563752</v>
+        <v>7.361354669563741</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>-2.544276490966585</v>
@@ -655,7 +655,7 @@
         <v>5.006309805735837</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-6.624365703831009</v>
+        <v>-6.62436570383102</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>-0.7725030733750526</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-11.13930599630453</v>
+        <v>-11.98981549301142</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-11.11800563343152</v>
+        <v>-12.2443154620814</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-7.261970936054684</v>
+        <v>-7.836130296357827</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-15.45259510682481</v>
+        <v>-14.18615401881872</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-10.58588147901949</v>
+        <v>-8.842001751845842</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-18.54871968199556</v>
+        <v>-19.66871766366176</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-9.769218239251245</v>
+        <v>-10.60890569510615</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-6.300547066176744</v>
+        <v>-6.34093080871021</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-10.20239978217564</v>
+        <v>-10.32081627066112</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>16.49798634973484</v>
+        <v>15.11790037620961</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>20.13246535686498</v>
+        <v>19.18351904570497</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>21.85050845057194</v>
+        <v>20.87915657648998</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10.61568442233188</v>
+        <v>11.16216499922685</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>19.20603989127644</v>
+        <v>19.74372478591066</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>5.420180394766641</v>
+        <v>6.130597329962475</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>8.660578963249886</v>
+        <v>8.652572267152436</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>16.06418342142662</v>
+        <v>15.29026058122987</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>9.563179865032625</v>
+        <v>9.686534533510896</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.1356053298983567</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.2825253755611365</v>
+        <v>0.2825253755611362</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-0.08034659332557344</v>
@@ -760,7 +760,7 @@
         <v>0.1580960007496963</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.2091931514264722</v>
+        <v>-0.2091931514264725</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>-0.02624016126588276</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.3409855694799206</v>
+        <v>-0.3914050530780673</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.3497373952209241</v>
+        <v>-0.3895753903289945</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.2175923217128512</v>
+        <v>-0.2449116710891553</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.4029007431397295</v>
+        <v>-0.3695063304402021</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.2827361549388428</v>
+        <v>-0.2348140264899852</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.4983856528684947</v>
+        <v>-0.5056020285018642</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.2875869620291358</v>
+        <v>-0.3055468094122512</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1976739400900431</v>
+        <v>-0.1944083015264314</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.3004371133897691</v>
+        <v>-0.3040656337890515</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.8916062232407229</v>
+        <v>0.8070245700838745</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.028725385902936</v>
+        <v>1.016266183433727</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.238268017075011</v>
+        <v>1.141017009623416</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.4231237682221557</v>
+        <v>0.4569501606418289</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.7491354925057376</v>
+        <v>0.8306442882489486</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2309437629871957</v>
+        <v>0.2642998861715944</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3502869083234713</v>
+        <v>0.3687772086903496</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.6725784452963639</v>
+        <v>0.616137005396497</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.3873194938205068</v>
+        <v>0.383286752404832</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>20.70811811284727</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>14.32175394251651</v>
+        <v>14.32175394251653</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>8.971003980432174</v>
@@ -878,7 +878,7 @@
         <v>15.31724220835805</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>14.09726610926856</v>
+        <v>14.09726610926855</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-6.864983276447105</v>
+        <v>-5.286812901567369</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>3.961480904683429</v>
+        <v>3.3218254131473</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.979858452213972</v>
+        <v>-0.6211883286313516</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.1937422743073894</v>
+        <v>0.8988215278159123</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>1.585272216369095</v>
+        <v>2.048605311432506</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>1.96019767041038</v>
+        <v>2.346698545863783</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>3.023682918223101</v>
+        <v>2.039690939302523</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>7.032412936818353</v>
+        <v>6.465075401084169</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>5.681567640371989</v>
+        <v>5.709082434707997</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>25.14897678822252</v>
+        <v>24.95663169160182</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>36.5180778822611</v>
+        <v>35.98789303100916</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>28.4535764398993</v>
+        <v>29.79030361902371</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>17.26641760350687</v>
+        <v>17.77729409114072</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>19.75047070663852</v>
+        <v>20.2124765033594</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>20.55572273936257</v>
+        <v>20.87362221981907</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>18.0165066979438</v>
+        <v>18.83711034560507</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>23.9768184869267</v>
+        <v>23.67532537958331</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>22.00748297294726</v>
+        <v>22.47688088635768</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.9747628758991156</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.6741469207801138</v>
+        <v>0.6741469207801146</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.7188625099853864</v>
@@ -974,7 +974,7 @@
         <v>0.8905236108838284</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.9194277355607119</v>
+        <v>0.9194277355607117</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.6958426793385339</v>
@@ -983,7 +983,7 @@
         <v>1.023827231133335</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.9422822157455073</v>
+        <v>0.942282215745507</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.219623816403054</v>
+        <v>-0.1751979020107972</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.0879889375369365</v>
+        <v>0.07733295623504108</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.08500044566885902</v>
+        <v>-0.0865262331537176</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.0692178121686275</v>
+        <v>0.004711191744823997</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.06026823501285979</v>
+        <v>0.07100250191479109</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.08643113188961889</v>
+        <v>0.1183098545826366</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1488306043239301</v>
+        <v>0.07925823199253858</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.3540299712509022</v>
+        <v>0.3068251520003499</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.3138999552156307</v>
+        <v>0.2503586412470342</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>2.051864162260726</v>
+        <v>2.211326332516383</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>3.428230772625761</v>
+        <v>3.127293469872356</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>2.341754103131598</v>
+        <v>2.547066333247864</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>2.088129657046097</v>
+        <v>2.046701220735008</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>2.266249617587845</v>
+        <v>2.335812423145679</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.490665868656393</v>
+        <v>2.37450476614815</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.689276769269566</v>
+        <v>1.71045719094487</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>2.233982385522089</v>
+        <v>2.086511137391563</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>2.157825719239116</v>
+        <v>2.114796796956792</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-19.95664638935884</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-9.012710918497346</v>
+        <v>-9.012710918497341</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>9.68660724627799</v>
@@ -1083,7 +1083,7 @@
         <v>-7.715571346333173</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>6.598507483145892</v>
+        <v>6.598507483145895</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.03054955082814059</v>
@@ -1092,7 +1092,7 @@
         <v>-13.1313278441268</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.7134810160562055</v>
+        <v>0.7134810160562138</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-43.06469808679886</v>
+        <v>-43.62817839011364</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-46.18842367873356</v>
+        <v>-46.25330075693815</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-34.06865613270062</v>
+        <v>-34.72925027298946</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-8.532955636218391</v>
+        <v>-9.14599981041156</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-24.08350185847131</v>
+        <v>-24.31254828866706</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-12.46749581516032</v>
+        <v>-8.104182993355533</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-16.54790670065437</v>
+        <v>-15.53326324990662</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-27.57950639414062</v>
+        <v>-26.67437997416586</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-14.45315794473699</v>
+        <v>-13.67918406952973</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>29.44833044686617</v>
+        <v>29.24317114635108</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.01376574160711</v>
+        <v>6.595226317765299</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>16.3676089348785</v>
+        <v>18.23361274938186</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>26.68889381888106</v>
+        <v>26.35753196105392</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>2.509979626278445</v>
+        <v>3.389637530536356</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>19.30404459011102</v>
+        <v>19.79594035023285</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>16.23513950183989</v>
+        <v>16.86312688761385</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-0.8510559937058879</v>
+        <v>0.1543737168129035</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>14.24835882866632</v>
+        <v>14.97434943939961</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.5445739590808418</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.2459374972718007</v>
+        <v>-0.2459374972718005</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.7973827301089511</v>
@@ -1188,7 +1188,7 @@
         <v>-0.6351308758650769</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.5431763441814906</v>
+        <v>0.5431763441814909</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.001387465677565277</v>
@@ -1197,7 +1197,7 @@
         <v>-0.5963841100996017</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.03240409087980812</v>
+        <v>0.0324040908798085</v>
       </c>
     </row>
     <row r="20">
@@ -1211,26 +1211,26 @@
         <v>-1</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.8955705179306644</v>
+        <v>-0.8962508834364553</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.6722089775307902</v>
+        <v>-0.6628182467955533</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.5607517792870715</v>
+        <v>-0.5377206793889782</v>
       </c>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="n">
-        <v>-0.5331948948395109</v>
+        <v>-0.4510181755067677</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.5620671535929715</v>
+        <v>-0.5537904157272953</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.8577576221119452</v>
+        <v>-0.8713189113250004</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.454415082080919</v>
+        <v>-0.436734733923803</v>
       </c>
     </row>
     <row r="21">
@@ -1241,29 +1241,29 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.971924635793163</v>
+        <v>1.744982184485728</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.3359982626851966</v>
+        <v>0.3455557380876836</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.8867958085922404</v>
+        <v>0.9763477371196218</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>6.784246601180617</v>
+        <v>7.982822971478231</v>
       </c>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="n">
-        <v>4.580706503696824</v>
+        <v>5.690419264438997</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.240230304180737</v>
+        <v>1.295706675337726</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.09385567545235683</v>
+        <v>0.09137706226760153</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.069031648919731</v>
+        <v>1.158852037532296</v>
       </c>
     </row>
     <row r="22">
@@ -1284,7 +1284,7 @@
         <v>7.453112308527388</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>7.136852827073942</v>
+        <v>7.136852827073936</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>4.395133147733954</v>
@@ -1293,7 +1293,7 @@
         <v>4.160720771464726</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>2.968344199925121</v>
+        <v>2.968344199925127</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>4.143125870829051</v>
@@ -1302,7 +1302,7 @@
         <v>5.554336468384907</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>5.495730777018803</v>
+        <v>5.495730777018809</v>
       </c>
     </row>
     <row r="23">
@@ -1313,31 +1313,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-5.817225891310967</v>
+        <v>-7.762566665369443</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-3.467336721336695</v>
+        <v>-2.809655200226703</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-3.011572289323369</v>
+        <v>-3.205921254176757</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.579037799094502</v>
+        <v>-2.593775447396851</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-2.761665725750266</v>
+        <v>-2.600028479523741</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-3.976716395075466</v>
+        <v>-4.446145073576258</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-1.803366473375116</v>
+        <v>-1.588808974390021</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-0.5961020339376671</v>
+        <v>-0.2761157329002042</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.02367809444491777</v>
+        <v>-0.7140085679824961</v>
       </c>
     </row>
     <row r="24">
@@ -1348,31 +1348,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>13.45432330605187</v>
+        <v>13.21873215857015</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>18.31903139319286</v>
+        <v>18.85680690457307</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>16.49014310519219</v>
+        <v>16.69585261362809</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>11.12431365962119</v>
+        <v>11.2661378996574</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>12.13913561957914</v>
+        <v>11.52335621393874</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>10.18490288696954</v>
+        <v>10.05834269024026</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>9.880444716971599</v>
+        <v>9.685195459868897</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>11.97075156888943</v>
+        <v>11.76053322916009</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>11.34513690877709</v>
+        <v>11.52801554961064</v>
       </c>
     </row>
     <row r="25">
@@ -1389,7 +1389,7 @@
         <v>0.2839853726974957</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.2719349616756579</v>
+        <v>0.2719349616756577</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.2176326008371951</v>
@@ -1398,7 +1398,7 @@
         <v>0.2060252675890086</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1469826844137309</v>
+        <v>0.1469826844137311</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.1856651077855384</v>
@@ -1407,7 +1407,7 @@
         <v>0.2489054185731208</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.2462791329270716</v>
+        <v>0.2462791329270718</v>
       </c>
     </row>
     <row r="26">
@@ -1418,31 +1418,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1936525582039683</v>
+        <v>-0.2439721886493547</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.09753916744173521</v>
+        <v>-0.09047452642928736</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.09529651524069239</v>
+        <v>-0.09564899914893876</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.1046289716752476</v>
+        <v>-0.1120062622001728</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1200202004725225</v>
+        <v>-0.1160266358785764</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1694624925487741</v>
+        <v>-0.1890581935559664</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.08560973071549376</v>
+        <v>-0.06387728106228852</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.03190832015305754</v>
+        <v>-0.01099213933046863</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.006174571454504114</v>
+        <v>-0.03182719571784742</v>
       </c>
     </row>
     <row r="27">
@@ -1453,31 +1453,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.6330603070348206</v>
+        <v>0.6547497038565434</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.9046291238919448</v>
+        <v>0.9485104577397943</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.8048496814445816</v>
+        <v>0.8962991686812337</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.6619539312840353</v>
+        <v>0.6629696625020565</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.7519315696089859</v>
+        <v>0.7090446874794741</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.5930187600894367</v>
+        <v>0.6003261092947196</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.498519142398971</v>
+        <v>0.4908967622119875</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.6366073441718187</v>
+        <v>0.6143610789352133</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.5992278558720922</v>
+        <v>0.6104998532151649</v>
       </c>
     </row>
     <row r="28">
